--- a/01.xlsx
+++ b/01.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzooco/Library/Mobile Documents/com~apple~CloudDocs/Documents/SUBSIDIARIES/1.NEW/CIMPLIFY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E9543A-07B2-0246-BF04-FA00D0CD851F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A042DA91-54DA-EB44-BC4E-C9B828366705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{FD1C1A06-9E6A-244C-BCF7-4BE313F4B495}"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{A3ECB72F-8296-4847-BE35-EB3A117E0E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$378</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$500</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="648">
   <si>
     <t>ID</t>
   </si>
@@ -1700,6 +1699,291 @@
   </si>
   <si>
     <t xml:space="preserve">6019 Petty Cash </t>
+  </si>
+  <si>
+    <t>James Vendi</t>
+  </si>
+  <si>
+    <t>Part paryment for wed design development</t>
+  </si>
+  <si>
+    <t>5029 Bali 10Units</t>
+  </si>
+  <si>
+    <t>Payment For Video Doorbell Adapter Cable Trim Out, And Rack Termination (Sapphire/ Opal) Cable Trim Out, And Rack Termination (Topaz) Installation And Programming Labor For Cabling (Dstv, Speaker And Doorbell) Logistics For Bali 2 Units</t>
+  </si>
+  <si>
+    <t>Muizzuddeen Sani Ma'Aji</t>
+  </si>
+  <si>
+    <t>Payment For Three Gang Smart Switch M2 Hub Video Doorbell Door Window Sensor For Bali 2 Units</t>
+  </si>
+  <si>
+    <t>Payment For AI Voice Asistant Arylic Amp Inceiling Speakers    For Bali 2 Units</t>
+  </si>
+  <si>
+    <t>Payment For Data Rack 4U Data Rack 6U Speacker Cable Dstv Cable   For Bali 2 Units</t>
+  </si>
+  <si>
+    <t>Payment For Data Rack 4U Data Rack 6U Speacker Cable Dstv Cable   For Bali 10 Units</t>
+  </si>
+  <si>
+    <t>Payment For Video Doorbell Adapter Cable Trim Out, And Rack Termination (Sapphire/ Opal) Cable Trim Out, And Rack Termination (Topaz) Installation And Programming Labor For Cabling (Dstv, Speaker And Doorbell) Logistics For Bali 10 Units</t>
+  </si>
+  <si>
+    <t>Payment For Three Gang Smart Switch M2 Hub Video Doorbell Door Window Sensor For Bali 10 Units</t>
+  </si>
+  <si>
+    <t>Payment For Al Voice Asistant Arylic Amp Inceiling Speakers    For Bali 10 Units</t>
+  </si>
+  <si>
+    <t>Rufai Yusuf Ahmad</t>
+  </si>
+  <si>
+    <t>Payment For Microsoft 365 Business Basic License 1 Year Commitment Hp Office Jet Printer 7720 1 Cart</t>
+  </si>
+  <si>
+    <t>Bilaad Development Trust</t>
+  </si>
+  <si>
+    <t>Payment for Gem Hunt 4.0 Event</t>
+  </si>
+  <si>
+    <t>Shakirat Muibi</t>
+  </si>
+  <si>
+    <t>Payment of salary for the month of August 2025</t>
+  </si>
+  <si>
+    <t>Abdulmalik Iyawa Muhammad</t>
+  </si>
+  <si>
+    <t>Surban Fibre</t>
+  </si>
+  <si>
+    <t>Payment for internet subscription for the month of September 2025</t>
+  </si>
+  <si>
+    <t>Payment for office expense for the month of September 2025</t>
+  </si>
+  <si>
+    <t>Payment for allowance for the month of August</t>
+  </si>
+  <si>
+    <t>Balance payment for supervision Mouna Mo audio visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhamed Abdullahi </t>
+  </si>
+  <si>
+    <t>Ibrahim Abubakar</t>
+  </si>
+  <si>
+    <t>Kyrosys Global Limited</t>
+  </si>
+  <si>
+    <t>Payment for memory card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment of bank charges </t>
+  </si>
+  <si>
+    <t>Payment for support for development of client requirements</t>
+  </si>
+  <si>
+    <t>Austine Bitrus</t>
+  </si>
+  <si>
+    <t>Payment for graphic designing &amp; socail media management</t>
+  </si>
+  <si>
+    <t>Payment for logistic for camera light</t>
+  </si>
+  <si>
+    <t>Payment For Light 97 Boya Micgodox Flash Light Led Light 800 Andlight Stand</t>
+  </si>
+  <si>
+    <t>Payment of salary for the month of September 2025</t>
+  </si>
+  <si>
+    <t>Payment for operating expenses for the month of October 2025</t>
+  </si>
+  <si>
+    <t>Al Amin Imam Ahmad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment for proposal design </t>
+  </si>
+  <si>
+    <t>Payment of allowance for the month of September 2025</t>
+  </si>
+  <si>
+    <t>Payment for internet subscription for the month of October 2025</t>
+  </si>
+  <si>
+    <t>Majidah Abdulwahab</t>
+  </si>
+  <si>
+    <t>Payment for enagement of social Media retainer for the month of September 2025</t>
+  </si>
+  <si>
+    <t>Payment of office expense for office of the CBO for the month of October 2025</t>
+  </si>
+  <si>
+    <t>5032 Seychelles II</t>
+  </si>
+  <si>
+    <t>Payment for logistics of material for Seychelle Project</t>
+  </si>
+  <si>
+    <t>Tawona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment for bi weekly meeting entertainment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance payment for  website development  </t>
+  </si>
+  <si>
+    <t>5030 Amazon PR5</t>
+  </si>
+  <si>
+    <t>Payment for cabling for material in Amazon PR5</t>
+  </si>
+  <si>
+    <t>Payment for speaker cable labour for Amzon PR5</t>
+  </si>
+  <si>
+    <t>Payment for cable cat6 and DSTV for Amazon PR5</t>
+  </si>
+  <si>
+    <t>Payment of salary for the month of October 2025</t>
+  </si>
+  <si>
+    <t>Payment for internet subscription for the month of November 2025</t>
+  </si>
+  <si>
+    <t>5031 Naf Valley</t>
+  </si>
+  <si>
+    <t>Payment For Cctv Camera Cat6 Cable 4Port Poe Switch 13 Ah Sucker And Plug Imou Wireless Camera Pipping Materials And Lab Naf Valley Project</t>
+  </si>
+  <si>
+    <t>Bolarinwa Cole Ola</t>
+  </si>
+  <si>
+    <t>Payment For Other Expenses For Naf Valley Project</t>
+  </si>
+  <si>
+    <t>Payment for enagement of social Media retainer for the month of October 2025</t>
+  </si>
+  <si>
+    <t>Nawa Properties</t>
+  </si>
+  <si>
+    <t>Initial Payment for frent for the year 2025/2026</t>
+  </si>
+  <si>
+    <t>Payment for office expense for the month of November 2025</t>
+  </si>
+  <si>
+    <t>Payment for internet subscription for the month of December 2025</t>
+  </si>
+  <si>
+    <t>Payment of office expense for office of the CBO for the month of November 2025</t>
+  </si>
+  <si>
+    <t>Payment of allowance for the month of October 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment for bi-weekly meeting entertainment </t>
+  </si>
+  <si>
+    <t>Amac</t>
+  </si>
+  <si>
+    <t>Payment for tenement rate collection</t>
+  </si>
+  <si>
+    <t>Payment for smart curtains beaket for seychelles</t>
+  </si>
+  <si>
+    <t>Payment For Cat6 Cable 6M Human Assistant Logistics Ethernet Cable Joiner For Seychelles Project</t>
+  </si>
+  <si>
+    <t>Payment of salary for the month of November 2025</t>
+  </si>
+  <si>
+    <t>Payment for office expense for the month of December 2025</t>
+  </si>
+  <si>
+    <t>Payment for office of the CBO office expenses for the month of December 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment for allowance for the month of November 2025 </t>
+  </si>
+  <si>
+    <t>Godwin Abutu</t>
+  </si>
+  <si>
+    <t>Payment for balance of tax consultancy fee</t>
+  </si>
+  <si>
+    <t>Payment for enagement of social Media retainer for the month of November 2025</t>
+  </si>
+  <si>
+    <t>Quintilian</t>
+  </si>
+  <si>
+    <t>Payment for retainer for communication skilss development for the month of December 2025</t>
+  </si>
+  <si>
+    <t>Part  Payment for Bali 10 Unit Project</t>
+  </si>
+  <si>
+    <t>4131 Bilaad Amazon PR5 Revenue</t>
+  </si>
+  <si>
+    <t>Payment for Amazon PR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/19/2025 </t>
+  </si>
+  <si>
+    <t>4130 Bali 10Units Revenue</t>
+  </si>
+  <si>
+    <t>Balance  Payment for Bali 10 Unit Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/13/2025 </t>
+  </si>
+  <si>
+    <t>4132 Naf Valley Revenue</t>
+  </si>
+  <si>
+    <t>Naf Valley</t>
+  </si>
+  <si>
+    <t>Payment for Naf Valley Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/25/2025 </t>
+  </si>
+  <si>
+    <t>4133 Bilaad Seychelles II Revenue</t>
+  </si>
+  <si>
+    <t>Payment for Seychelles Project</t>
+  </si>
+  <si>
+    <t>Payment of salary for the month of December 2025</t>
+  </si>
+  <si>
+    <t>4100 Amount Received</t>
+  </si>
+  <si>
+    <t>Refund</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1994,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1744,6 +2028,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1782,7 +2072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1799,6 +2089,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2135,16 +2435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567B0B89-13D6-844C-A15B-AD52EC1F3EDB}">
-  <dimension ref="A1:K380"/>
+  <dimension ref="A1:K500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13456,7 +13753,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="4">
         <v>45854</v>
@@ -13490,6 +13787,9 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>326</v>
+      </c>
       <c r="B329" s="8">
         <v>45854</v>
       </c>
@@ -13522,6 +13822,9 @@
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>326</v>
+      </c>
       <c r="B330" s="8">
         <v>45854</v>
       </c>
@@ -13554,6 +13857,9 @@
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>326</v>
+      </c>
       <c r="B331" s="8">
         <v>45854</v>
       </c>
@@ -13586,6 +13892,9 @@
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>326</v>
+      </c>
       <c r="B332" s="8">
         <v>45854</v>
       </c>
@@ -13618,6 +13927,9 @@
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>326</v>
+      </c>
       <c r="B333" s="8">
         <v>45854</v>
       </c>
@@ -13650,6 +13962,9 @@
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>326</v>
+      </c>
       <c r="B334" s="8">
         <v>45854</v>
       </c>
@@ -13682,6 +13997,9 @@
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>326</v>
+      </c>
       <c r="B335" s="4">
         <v>45854</v>
       </c>
@@ -13714,6 +14032,9 @@
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>326</v>
+      </c>
       <c r="B336" s="4">
         <v>45854</v>
       </c>
@@ -13745,7 +14066,10 @@
         <v>2736591.6</v>
       </c>
     </row>
-    <row r="337" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>326</v>
+      </c>
       <c r="B337" s="4">
         <v>45854</v>
       </c>
@@ -13777,7 +14101,10 @@
         <v>1935000</v>
       </c>
     </row>
-    <row r="338" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>326</v>
+      </c>
       <c r="B338" s="4">
         <v>45854</v>
       </c>
@@ -13809,7 +14136,10 @@
         <v>2740000</v>
       </c>
     </row>
-    <row r="339" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>326</v>
+      </c>
       <c r="B339" s="4">
         <v>45854</v>
       </c>
@@ -13841,7 +14171,10 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="340" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>326</v>
+      </c>
       <c r="B340" s="4">
         <v>45854</v>
       </c>
@@ -13873,7 +14206,10 @@
         <v>1874419.8</v>
       </c>
     </row>
-    <row r="341" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>326</v>
+      </c>
       <c r="B341" s="4">
         <v>45854</v>
       </c>
@@ -13905,7 +14241,10 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="342" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>326</v>
+      </c>
       <c r="B342" s="4">
         <v>45854</v>
       </c>
@@ -13937,7 +14276,10 @@
         <v>1247568</v>
       </c>
     </row>
-    <row r="343" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>326</v>
+      </c>
       <c r="B343" s="4">
         <v>45854</v>
       </c>
@@ -13969,7 +14311,10 @@
         <v>258000</v>
       </c>
     </row>
-    <row r="344" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>326</v>
+      </c>
       <c r="B344" s="4">
         <v>45854</v>
       </c>
@@ -14001,7 +14346,10 @@
         <v>1520000</v>
       </c>
     </row>
-    <row r="345" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>326</v>
+      </c>
       <c r="B345" s="4">
         <v>45877</v>
       </c>
@@ -14033,7 +14381,10 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="346" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>326</v>
+      </c>
       <c r="B346" s="4">
         <v>45879</v>
       </c>
@@ -14065,7 +14416,10 @@
         <v>2305000</v>
       </c>
     </row>
-    <row r="347" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>326</v>
+      </c>
       <c r="B347" s="4">
         <v>45879</v>
       </c>
@@ -14097,7 +14451,10 @@
         <v>359000</v>
       </c>
     </row>
-    <row r="348" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>326</v>
+      </c>
       <c r="B348" s="4">
         <v>45879</v>
       </c>
@@ -14129,7 +14486,10 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="349" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>326</v>
+      </c>
       <c r="B349" s="4">
         <v>45879</v>
       </c>
@@ -14161,7 +14521,10 @@
         <v>188000</v>
       </c>
     </row>
-    <row r="350" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>326</v>
+      </c>
       <c r="B350" s="4">
         <v>45803</v>
       </c>
@@ -14193,7 +14556,10 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="351" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>326</v>
+      </c>
       <c r="B351" s="4">
         <v>45808</v>
       </c>
@@ -14225,7 +14591,10 @@
         <v>5254.37</v>
       </c>
     </row>
-    <row r="352" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>326</v>
+      </c>
       <c r="B352" s="4">
         <v>45811</v>
       </c>
@@ -14257,7 +14626,10 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="353" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>326</v>
+      </c>
       <c r="B353" s="4">
         <v>45813</v>
       </c>
@@ -14289,7 +14661,10 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="354" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>326</v>
+      </c>
       <c r="B354" s="4">
         <v>45827</v>
       </c>
@@ -14321,7 +14696,10 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="355" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>326</v>
+      </c>
       <c r="B355" s="4">
         <v>45830</v>
       </c>
@@ -14353,7 +14731,10 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="356" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>326</v>
+      </c>
       <c r="B356" s="4">
         <v>45830</v>
       </c>
@@ -14385,7 +14766,10 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="357" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>326</v>
+      </c>
       <c r="B357" s="4">
         <v>45830</v>
       </c>
@@ -14417,7 +14801,10 @@
         <v>720000</v>
       </c>
     </row>
-    <row r="358" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>326</v>
+      </c>
       <c r="B358" s="4">
         <v>45833</v>
       </c>
@@ -14449,7 +14836,10 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="359" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>326</v>
+      </c>
       <c r="B359" s="4">
         <v>45833</v>
       </c>
@@ -14481,7 +14871,10 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="360" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>326</v>
+      </c>
       <c r="B360" s="4">
         <v>45833</v>
       </c>
@@ -14513,7 +14906,10 @@
         <v>160544.54999999999</v>
       </c>
     </row>
-    <row r="361" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>326</v>
+      </c>
       <c r="B361" s="4">
         <v>45835</v>
       </c>
@@ -14545,7 +14941,10 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="362" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>326</v>
+      </c>
       <c r="B362" s="4">
         <v>45835</v>
       </c>
@@ -14577,7 +14976,10 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="363" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>326</v>
+      </c>
       <c r="B363" s="4">
         <v>45835</v>
       </c>
@@ -14609,7 +15011,10 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="364" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>326</v>
+      </c>
       <c r="B364" s="4">
         <v>45835</v>
       </c>
@@ -14641,7 +15046,10 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="365" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>326</v>
+      </c>
       <c r="B365" s="4">
         <v>45835</v>
       </c>
@@ -14673,7 +15081,10 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="366" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>326</v>
+      </c>
       <c r="B366" s="4">
         <v>45835</v>
       </c>
@@ -14705,7 +15116,10 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="367" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>326</v>
+      </c>
       <c r="B367" s="4">
         <v>45838</v>
       </c>
@@ -14737,7 +15151,10 @@
         <v>6410.36</v>
       </c>
     </row>
-    <row r="368" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>326</v>
+      </c>
       <c r="B368" s="4">
         <v>45842</v>
       </c>
@@ -14769,7 +15186,10 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="369" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>326</v>
+      </c>
       <c r="B369" s="4">
         <v>45863</v>
       </c>
@@ -14801,7 +15221,10 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="370" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>326</v>
+      </c>
       <c r="B370" s="4">
         <v>45864</v>
       </c>
@@ -14833,7 +15256,10 @@
         <v>2114000</v>
       </c>
     </row>
-    <row r="371" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>326</v>
+      </c>
       <c r="B371" s="4">
         <v>45865</v>
       </c>
@@ -14865,7 +15291,10 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="372" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>326</v>
+      </c>
       <c r="B372" s="4">
         <v>45865</v>
       </c>
@@ -14897,7 +15326,10 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="373" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>326</v>
+      </c>
       <c r="B373" s="4">
         <v>45865</v>
       </c>
@@ -14929,7 +15361,10 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="374" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>326</v>
+      </c>
       <c r="B374" s="4">
         <v>45865</v>
       </c>
@@ -14961,7 +15396,10 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="375" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>326</v>
+      </c>
       <c r="B375" s="4">
         <v>45865</v>
       </c>
@@ -14993,7 +15431,10 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="376" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>326</v>
+      </c>
       <c r="B376" s="4">
         <v>45865</v>
       </c>
@@ -15025,7 +15466,10 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="377" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>326</v>
+      </c>
       <c r="B377" s="4">
         <v>45865</v>
       </c>
@@ -15057,7 +15501,10 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="378" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>326</v>
+      </c>
       <c r="B378" s="4">
         <v>45869</v>
       </c>
@@ -15089,14 +15536,4276 @@
         <v>34375.78</v>
       </c>
     </row>
-    <row r="379" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B379" s="4"/>
-    </row>
-    <row r="380" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B380" s="4"/>
+    <row r="379" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>326</v>
+      </c>
+      <c r="B379" s="4">
+        <v>45876</v>
+      </c>
+      <c r="C379">
+        <v>6023</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="E379" t="s">
+        <v>323</v>
+      </c>
+      <c r="F379" t="s">
+        <v>324</v>
+      </c>
+      <c r="G379" t="s">
+        <v>82</v>
+      </c>
+      <c r="H379" t="s">
+        <v>553</v>
+      </c>
+      <c r="I379" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="J379" t="s">
+        <v>85</v>
+      </c>
+      <c r="K379" s="7">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>326</v>
+      </c>
+      <c r="B380" s="4">
+        <v>45877</v>
+      </c>
+      <c r="C380">
+        <v>6027</v>
+      </c>
+      <c r="D380" t="s">
+        <v>544</v>
+      </c>
+      <c r="E380" t="s">
+        <v>323</v>
+      </c>
+      <c r="F380" t="s">
+        <v>324</v>
+      </c>
+      <c r="G380" t="s">
+        <v>82</v>
+      </c>
+      <c r="H380" t="s">
+        <v>503</v>
+      </c>
+      <c r="I380" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="J380" t="s">
+        <v>85</v>
+      </c>
+      <c r="K380" s="7">
+        <v>188000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>326</v>
+      </c>
+      <c r="B381" s="4">
+        <v>45879</v>
+      </c>
+      <c r="C381">
+        <v>6027</v>
+      </c>
+      <c r="D381" t="s">
+        <v>544</v>
+      </c>
+      <c r="E381" t="s">
+        <v>323</v>
+      </c>
+      <c r="F381" t="s">
+        <v>324</v>
+      </c>
+      <c r="G381" t="s">
+        <v>82</v>
+      </c>
+      <c r="H381" t="s">
+        <v>504</v>
+      </c>
+      <c r="I381" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="J381" t="s">
+        <v>85</v>
+      </c>
+      <c r="K381" s="7">
+        <v>359000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>326</v>
+      </c>
+      <c r="B382" s="4">
+        <v>45879</v>
+      </c>
+      <c r="C382">
+        <v>6006</v>
+      </c>
+      <c r="D382" t="s">
+        <v>376</v>
+      </c>
+      <c r="E382" t="s">
+        <v>323</v>
+      </c>
+      <c r="F382" t="s">
+        <v>324</v>
+      </c>
+      <c r="G382" t="s">
+        <v>82</v>
+      </c>
+      <c r="H382" t="s">
+        <v>112</v>
+      </c>
+      <c r="I382" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="J382" t="s">
+        <v>85</v>
+      </c>
+      <c r="K382" s="7">
+        <v>2305000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>326</v>
+      </c>
+      <c r="B383" s="4">
+        <v>45879</v>
+      </c>
+      <c r="C383">
+        <v>6006</v>
+      </c>
+      <c r="D383" t="s">
+        <v>376</v>
+      </c>
+      <c r="E383" t="s">
+        <v>323</v>
+      </c>
+      <c r="F383" t="s">
+        <v>324</v>
+      </c>
+      <c r="G383" t="s">
+        <v>82</v>
+      </c>
+      <c r="H383" t="s">
+        <v>505</v>
+      </c>
+      <c r="I383" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="J383" t="s">
+        <v>85</v>
+      </c>
+      <c r="K383" s="7">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>326</v>
+      </c>
+      <c r="B384" s="4">
+        <v>45885</v>
+      </c>
+      <c r="C384">
+        <v>5029</v>
+      </c>
+      <c r="D384" t="s">
+        <v>555</v>
+      </c>
+      <c r="E384" t="s">
+        <v>80</v>
+      </c>
+      <c r="F384" t="s">
+        <v>81</v>
+      </c>
+      <c r="G384" t="s">
+        <v>82</v>
+      </c>
+      <c r="H384" t="s">
+        <v>165</v>
+      </c>
+      <c r="I384" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="J384" t="s">
+        <v>85</v>
+      </c>
+      <c r="K384" s="7">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>326</v>
+      </c>
+      <c r="B385" s="4">
+        <v>45889</v>
+      </c>
+      <c r="C385">
+        <v>5029</v>
+      </c>
+      <c r="D385" t="s">
+        <v>555</v>
+      </c>
+      <c r="E385" t="s">
+        <v>80</v>
+      </c>
+      <c r="F385" t="s">
+        <v>81</v>
+      </c>
+      <c r="G385" t="s">
+        <v>82</v>
+      </c>
+      <c r="H385" t="s">
+        <v>557</v>
+      </c>
+      <c r="I385" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="J385" t="s">
+        <v>85</v>
+      </c>
+      <c r="K385" s="7">
+        <v>1162662</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>326</v>
+      </c>
+      <c r="B386" s="4">
+        <v>45889</v>
+      </c>
+      <c r="C386">
+        <v>5029</v>
+      </c>
+      <c r="D386" t="s">
+        <v>555</v>
+      </c>
+      <c r="E386" t="s">
+        <v>80</v>
+      </c>
+      <c r="F386" t="s">
+        <v>81</v>
+      </c>
+      <c r="G386" t="s">
+        <v>82</v>
+      </c>
+      <c r="H386" t="s">
+        <v>169</v>
+      </c>
+      <c r="I386" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="J386" t="s">
+        <v>85</v>
+      </c>
+      <c r="K386" s="7">
+        <v>1638144</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>326</v>
+      </c>
+      <c r="B387" s="4">
+        <v>45889</v>
+      </c>
+      <c r="C387">
+        <v>5029</v>
+      </c>
+      <c r="D387" t="s">
+        <v>555</v>
+      </c>
+      <c r="E387" t="s">
+        <v>80</v>
+      </c>
+      <c r="F387" t="s">
+        <v>81</v>
+      </c>
+      <c r="G387" t="s">
+        <v>82</v>
+      </c>
+      <c r="H387" t="s">
+        <v>123</v>
+      </c>
+      <c r="I387" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="J387" t="s">
+        <v>85</v>
+      </c>
+      <c r="K387" s="7">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>326</v>
+      </c>
+      <c r="B388" s="4">
+        <v>45889</v>
+      </c>
+      <c r="C388">
+        <v>5029</v>
+      </c>
+      <c r="D388" t="s">
+        <v>555</v>
+      </c>
+      <c r="E388" t="s">
+        <v>80</v>
+      </c>
+      <c r="F388" t="s">
+        <v>81</v>
+      </c>
+      <c r="G388" t="s">
+        <v>82</v>
+      </c>
+      <c r="H388" t="s">
+        <v>123</v>
+      </c>
+      <c r="I388" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="J388" t="s">
+        <v>85</v>
+      </c>
+      <c r="K388" s="7">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>326</v>
+      </c>
+      <c r="B389" s="4">
+        <v>45889</v>
+      </c>
+      <c r="C389">
+        <v>5029</v>
+      </c>
+      <c r="D389" t="s">
+        <v>555</v>
+      </c>
+      <c r="E389" t="s">
+        <v>80</v>
+      </c>
+      <c r="F389" t="s">
+        <v>81</v>
+      </c>
+      <c r="G389" t="s">
+        <v>82</v>
+      </c>
+      <c r="H389" t="s">
+        <v>165</v>
+      </c>
+      <c r="I389" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="J389" t="s">
+        <v>85</v>
+      </c>
+      <c r="K389" s="7">
+        <v>771000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>326</v>
+      </c>
+      <c r="B390" s="4">
+        <v>45889</v>
+      </c>
+      <c r="C390">
+        <v>5029</v>
+      </c>
+      <c r="D390" t="s">
+        <v>555</v>
+      </c>
+      <c r="E390" t="s">
+        <v>80</v>
+      </c>
+      <c r="F390" t="s">
+        <v>81</v>
+      </c>
+      <c r="G390" t="s">
+        <v>82</v>
+      </c>
+      <c r="H390" t="s">
+        <v>557</v>
+      </c>
+      <c r="I390" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="J390" t="s">
+        <v>85</v>
+      </c>
+      <c r="K390" s="7">
+        <v>3487986</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>326</v>
+      </c>
+      <c r="B391" s="4">
+        <v>45889</v>
+      </c>
+      <c r="C391">
+        <v>5029</v>
+      </c>
+      <c r="D391" t="s">
+        <v>555</v>
+      </c>
+      <c r="E391" t="s">
+        <v>80</v>
+      </c>
+      <c r="F391" t="s">
+        <v>81</v>
+      </c>
+      <c r="G391" t="s">
+        <v>82</v>
+      </c>
+      <c r="H391" t="s">
+        <v>169</v>
+      </c>
+      <c r="I391" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="J391" t="s">
+        <v>85</v>
+      </c>
+      <c r="K391" s="7">
+        <v>7257888</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>326</v>
+      </c>
+      <c r="B392" s="4">
+        <v>45889</v>
+      </c>
+      <c r="C392">
+        <v>6015</v>
+      </c>
+      <c r="D392" t="s">
+        <v>432</v>
+      </c>
+      <c r="E392" t="s">
+        <v>323</v>
+      </c>
+      <c r="F392" t="s">
+        <v>324</v>
+      </c>
+      <c r="G392" t="s">
+        <v>82</v>
+      </c>
+      <c r="H392" t="s">
+        <v>565</v>
+      </c>
+      <c r="I392" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="J392" t="s">
+        <v>85</v>
+      </c>
+      <c r="K392" s="7">
+        <v>853900</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>326</v>
+      </c>
+      <c r="B393" s="4">
+        <v>45893</v>
+      </c>
+      <c r="C393">
+        <v>6014</v>
+      </c>
+      <c r="D393" t="s">
+        <v>370</v>
+      </c>
+      <c r="E393" t="s">
+        <v>323</v>
+      </c>
+      <c r="F393" t="s">
+        <v>324</v>
+      </c>
+      <c r="G393" t="s">
+        <v>82</v>
+      </c>
+      <c r="H393" t="s">
+        <v>567</v>
+      </c>
+      <c r="I393" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="J393" t="s">
+        <v>85</v>
+      </c>
+      <c r="K393" s="7">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>326</v>
+      </c>
+      <c r="B394" s="4">
+        <v>45894</v>
+      </c>
+      <c r="C394">
+        <v>6012</v>
+      </c>
+      <c r="D394" t="s">
+        <v>338</v>
+      </c>
+      <c r="E394" t="s">
+        <v>323</v>
+      </c>
+      <c r="F394" t="s">
+        <v>324</v>
+      </c>
+      <c r="G394" t="s">
+        <v>82</v>
+      </c>
+      <c r="H394" t="s">
+        <v>569</v>
+      </c>
+      <c r="I394" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="J394" t="s">
+        <v>85</v>
+      </c>
+      <c r="K394" s="12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>326</v>
+      </c>
+      <c r="B395" s="4">
+        <v>45894</v>
+      </c>
+      <c r="C395">
+        <v>6012</v>
+      </c>
+      <c r="D395" t="s">
+        <v>338</v>
+      </c>
+      <c r="E395" t="s">
+        <v>323</v>
+      </c>
+      <c r="F395" t="s">
+        <v>324</v>
+      </c>
+      <c r="G395" t="s">
+        <v>82</v>
+      </c>
+      <c r="H395" t="s">
+        <v>571</v>
+      </c>
+      <c r="I395" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="J395" t="s">
+        <v>85</v>
+      </c>
+      <c r="K395" s="12">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>326</v>
+      </c>
+      <c r="B396" s="4">
+        <v>45894</v>
+      </c>
+      <c r="C396">
+        <v>6015</v>
+      </c>
+      <c r="D396" t="s">
+        <v>432</v>
+      </c>
+      <c r="E396" t="s">
+        <v>323</v>
+      </c>
+      <c r="F396" t="s">
+        <v>324</v>
+      </c>
+      <c r="G396" t="s">
+        <v>82</v>
+      </c>
+      <c r="H396" t="s">
+        <v>572</v>
+      </c>
+      <c r="I396" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="J396" t="s">
+        <v>85</v>
+      </c>
+      <c r="K396" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>326</v>
+      </c>
+      <c r="B397" s="4">
+        <v>45894</v>
+      </c>
+      <c r="C397">
+        <v>6012</v>
+      </c>
+      <c r="D397" t="s">
+        <v>338</v>
+      </c>
+      <c r="E397" t="s">
+        <v>323</v>
+      </c>
+      <c r="F397" t="s">
+        <v>324</v>
+      </c>
+      <c r="G397" t="s">
+        <v>82</v>
+      </c>
+      <c r="H397" t="s">
+        <v>112</v>
+      </c>
+      <c r="I397" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="J397" t="s">
+        <v>85</v>
+      </c>
+      <c r="K397" s="12">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>326</v>
+      </c>
+      <c r="B398" s="4">
+        <v>45894</v>
+      </c>
+      <c r="C398">
+        <v>6006</v>
+      </c>
+      <c r="D398" t="s">
+        <v>376</v>
+      </c>
+      <c r="E398" t="s">
+        <v>323</v>
+      </c>
+      <c r="F398" t="s">
+        <v>324</v>
+      </c>
+      <c r="G398" t="s">
+        <v>82</v>
+      </c>
+      <c r="H398" t="s">
+        <v>112</v>
+      </c>
+      <c r="I398" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="J398" t="s">
+        <v>85</v>
+      </c>
+      <c r="K398" s="7">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>326</v>
+      </c>
+      <c r="B399" s="4">
+        <v>45894</v>
+      </c>
+      <c r="C399">
+        <v>6022</v>
+      </c>
+      <c r="D399" t="s">
+        <v>541</v>
+      </c>
+      <c r="E399" t="s">
+        <v>323</v>
+      </c>
+      <c r="F399" t="s">
+        <v>324</v>
+      </c>
+      <c r="G399" t="s">
+        <v>82</v>
+      </c>
+      <c r="H399" t="s">
+        <v>527</v>
+      </c>
+      <c r="I399" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="J399" t="s">
+        <v>85</v>
+      </c>
+      <c r="K399" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>326</v>
+      </c>
+      <c r="B400" s="4">
+        <v>45894</v>
+      </c>
+      <c r="C400">
+        <v>5001</v>
+      </c>
+      <c r="D400" t="s">
+        <v>79</v>
+      </c>
+      <c r="E400" t="s">
+        <v>80</v>
+      </c>
+      <c r="F400" t="s">
+        <v>88</v>
+      </c>
+      <c r="G400" t="s">
+        <v>82</v>
+      </c>
+      <c r="H400" t="s">
+        <v>112</v>
+      </c>
+      <c r="I400" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="J400" t="s">
+        <v>85</v>
+      </c>
+      <c r="K400" s="12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>326</v>
+      </c>
+      <c r="B401" s="4">
+        <v>45894</v>
+      </c>
+      <c r="C401">
+        <v>6012</v>
+      </c>
+      <c r="D401" t="s">
+        <v>338</v>
+      </c>
+      <c r="E401" t="s">
+        <v>323</v>
+      </c>
+      <c r="F401" t="s">
+        <v>324</v>
+      </c>
+      <c r="G401" t="s">
+        <v>82</v>
+      </c>
+      <c r="H401" t="s">
+        <v>557</v>
+      </c>
+      <c r="I401" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="J401" t="s">
+        <v>85</v>
+      </c>
+      <c r="K401" s="12">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>326</v>
+      </c>
+      <c r="B402" s="4">
+        <v>45894</v>
+      </c>
+      <c r="C402">
+        <v>6012</v>
+      </c>
+      <c r="D402" t="s">
+        <v>338</v>
+      </c>
+      <c r="E402" t="s">
+        <v>323</v>
+      </c>
+      <c r="F402" t="s">
+        <v>324</v>
+      </c>
+      <c r="G402" t="s">
+        <v>82</v>
+      </c>
+      <c r="H402" t="s">
+        <v>565</v>
+      </c>
+      <c r="I402" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="J402" t="s">
+        <v>85</v>
+      </c>
+      <c r="K402" s="12">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>326</v>
+      </c>
+      <c r="B403" s="4">
+        <v>45894</v>
+      </c>
+      <c r="C403">
+        <v>6012</v>
+      </c>
+      <c r="D403" t="s">
+        <v>338</v>
+      </c>
+      <c r="E403" t="s">
+        <v>323</v>
+      </c>
+      <c r="F403" t="s">
+        <v>324</v>
+      </c>
+      <c r="G403" t="s">
+        <v>82</v>
+      </c>
+      <c r="H403" t="s">
+        <v>577</v>
+      </c>
+      <c r="I403" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="J403" t="s">
+        <v>85</v>
+      </c>
+      <c r="K403" s="12">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>326</v>
+      </c>
+      <c r="B404" s="4">
+        <v>45894</v>
+      </c>
+      <c r="C404">
+        <v>6012</v>
+      </c>
+      <c r="D404" t="s">
+        <v>338</v>
+      </c>
+      <c r="E404" t="s">
+        <v>323</v>
+      </c>
+      <c r="F404" t="s">
+        <v>324</v>
+      </c>
+      <c r="G404" t="s">
+        <v>82</v>
+      </c>
+      <c r="H404" t="s">
+        <v>578</v>
+      </c>
+      <c r="I404" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="J404" t="s">
+        <v>85</v>
+      </c>
+      <c r="K404" s="12">
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>326</v>
+      </c>
+      <c r="B405" s="4">
+        <v>45895</v>
+      </c>
+      <c r="C405">
+        <v>6006</v>
+      </c>
+      <c r="D405" t="s">
+        <v>376</v>
+      </c>
+      <c r="E405" t="s">
+        <v>323</v>
+      </c>
+      <c r="F405" t="s">
+        <v>324</v>
+      </c>
+      <c r="G405" t="s">
+        <v>82</v>
+      </c>
+      <c r="H405" t="s">
+        <v>579</v>
+      </c>
+      <c r="I405" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="J405" t="s">
+        <v>85</v>
+      </c>
+      <c r="K405" s="7">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>326</v>
+      </c>
+      <c r="B406" s="4">
+        <v>45898</v>
+      </c>
+      <c r="C406">
+        <v>6002</v>
+      </c>
+      <c r="D406" t="s">
+        <v>328</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F406" t="s">
+        <v>324</v>
+      </c>
+      <c r="G406" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H406" t="s">
+        <v>327</v>
+      </c>
+      <c r="I406" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="J406" t="s">
+        <v>85</v>
+      </c>
+      <c r="K406" s="7">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>326</v>
+      </c>
+      <c r="B407" s="4">
+        <v>45899</v>
+      </c>
+      <c r="C407">
+        <v>6002</v>
+      </c>
+      <c r="D407" t="s">
+        <v>328</v>
+      </c>
+      <c r="E407" t="s">
+        <v>323</v>
+      </c>
+      <c r="F407" t="s">
+        <v>324</v>
+      </c>
+      <c r="G407" t="s">
+        <v>82</v>
+      </c>
+      <c r="H407" t="s">
+        <v>327</v>
+      </c>
+      <c r="I407" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="J407" t="s">
+        <v>85</v>
+      </c>
+      <c r="K407" s="7">
+        <v>36.450000000000003</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>326</v>
+      </c>
+      <c r="B408" s="4">
+        <v>45899</v>
+      </c>
+      <c r="C408">
+        <v>6006</v>
+      </c>
+      <c r="D408" t="s">
+        <v>376</v>
+      </c>
+      <c r="E408" t="s">
+        <v>323</v>
+      </c>
+      <c r="F408" t="s">
+        <v>324</v>
+      </c>
+      <c r="G408" t="s">
+        <v>82</v>
+      </c>
+      <c r="I408" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="J408" t="s">
+        <v>85</v>
+      </c>
+      <c r="K408" s="7">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>326</v>
+      </c>
+      <c r="B409" s="4">
+        <v>45899</v>
+      </c>
+      <c r="C409">
+        <v>6002</v>
+      </c>
+      <c r="D409" t="s">
+        <v>328</v>
+      </c>
+      <c r="E409" t="s">
+        <v>323</v>
+      </c>
+      <c r="F409" t="s">
+        <v>324</v>
+      </c>
+      <c r="G409" t="s">
+        <v>82</v>
+      </c>
+      <c r="H409" t="s">
+        <v>327</v>
+      </c>
+      <c r="I409" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="J409" t="s">
+        <v>85</v>
+      </c>
+      <c r="K409" s="7">
+        <v>22139.58</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>326</v>
+      </c>
+      <c r="B410" s="4">
+        <v>45900</v>
+      </c>
+      <c r="C410">
+        <v>6002</v>
+      </c>
+      <c r="D410" t="s">
+        <v>328</v>
+      </c>
+      <c r="E410" t="s">
+        <v>323</v>
+      </c>
+      <c r="F410" t="s">
+        <v>324</v>
+      </c>
+      <c r="G410" t="s">
+        <v>82</v>
+      </c>
+      <c r="H410" t="s">
+        <v>327</v>
+      </c>
+      <c r="I410" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="J410" t="s">
+        <v>85</v>
+      </c>
+      <c r="K410" s="7">
+        <v>1660.48</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>326</v>
+      </c>
+      <c r="B411" s="4">
+        <v>45900</v>
+      </c>
+      <c r="C411">
+        <v>6001</v>
+      </c>
+      <c r="D411" t="s">
+        <v>388</v>
+      </c>
+      <c r="E411" t="s">
+        <v>323</v>
+      </c>
+      <c r="F411" t="s">
+        <v>324</v>
+      </c>
+      <c r="G411" t="s">
+        <v>82</v>
+      </c>
+      <c r="H411" t="s">
+        <v>583</v>
+      </c>
+      <c r="I411" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="J411" t="s">
+        <v>85</v>
+      </c>
+      <c r="K411" s="7">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>326</v>
+      </c>
+      <c r="B412" s="4">
+        <v>45902</v>
+      </c>
+      <c r="C412">
+        <v>6006</v>
+      </c>
+      <c r="D412" t="s">
+        <v>376</v>
+      </c>
+      <c r="E412" t="s">
+        <v>323</v>
+      </c>
+      <c r="F412" t="s">
+        <v>324</v>
+      </c>
+      <c r="G412" t="s">
+        <v>82</v>
+      </c>
+      <c r="H412" t="s">
+        <v>112</v>
+      </c>
+      <c r="I412" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="J412" t="s">
+        <v>85</v>
+      </c>
+      <c r="K412" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>326</v>
+      </c>
+      <c r="B413" s="4">
+        <v>45911</v>
+      </c>
+      <c r="C413">
+        <v>6027</v>
+      </c>
+      <c r="D413" t="s">
+        <v>544</v>
+      </c>
+      <c r="E413" t="s">
+        <v>323</v>
+      </c>
+      <c r="F413" t="s">
+        <v>324</v>
+      </c>
+      <c r="G413" t="s">
+        <v>82</v>
+      </c>
+      <c r="H413" t="s">
+        <v>503</v>
+      </c>
+      <c r="I413" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="J413" t="s">
+        <v>85</v>
+      </c>
+      <c r="K413" s="7">
+        <v>638000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>326</v>
+      </c>
+      <c r="B414" s="4">
+        <v>45925</v>
+      </c>
+      <c r="C414">
+        <v>6012</v>
+      </c>
+      <c r="D414" t="s">
+        <v>338</v>
+      </c>
+      <c r="E414" t="s">
+        <v>323</v>
+      </c>
+      <c r="F414" t="s">
+        <v>324</v>
+      </c>
+      <c r="G414" t="s">
+        <v>82</v>
+      </c>
+      <c r="H414" t="s">
+        <v>571</v>
+      </c>
+      <c r="I414" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="J414" t="s">
+        <v>85</v>
+      </c>
+      <c r="K414" s="7">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>326</v>
+      </c>
+      <c r="B415" s="4">
+        <v>45925</v>
+      </c>
+      <c r="C415">
+        <v>6012</v>
+      </c>
+      <c r="D415" t="s">
+        <v>338</v>
+      </c>
+      <c r="E415" t="s">
+        <v>323</v>
+      </c>
+      <c r="F415" t="s">
+        <v>324</v>
+      </c>
+      <c r="G415" t="s">
+        <v>82</v>
+      </c>
+      <c r="H415" t="s">
+        <v>112</v>
+      </c>
+      <c r="I415" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="J415" t="s">
+        <v>85</v>
+      </c>
+      <c r="K415" s="7">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>326</v>
+      </c>
+      <c r="B416" s="4">
+        <v>45925</v>
+      </c>
+      <c r="C416">
+        <v>6012</v>
+      </c>
+      <c r="D416" t="s">
+        <v>338</v>
+      </c>
+      <c r="E416" t="s">
+        <v>323</v>
+      </c>
+      <c r="F416" t="s">
+        <v>324</v>
+      </c>
+      <c r="G416" t="s">
+        <v>82</v>
+      </c>
+      <c r="H416" t="s">
+        <v>578</v>
+      </c>
+      <c r="I416" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="J416" t="s">
+        <v>85</v>
+      </c>
+      <c r="K416" s="7">
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>326</v>
+      </c>
+      <c r="B417" s="4">
+        <v>45925</v>
+      </c>
+      <c r="C417">
+        <v>6012</v>
+      </c>
+      <c r="D417" t="s">
+        <v>338</v>
+      </c>
+      <c r="E417" t="s">
+        <v>323</v>
+      </c>
+      <c r="F417" t="s">
+        <v>324</v>
+      </c>
+      <c r="G417" t="s">
+        <v>82</v>
+      </c>
+      <c r="H417" t="s">
+        <v>557</v>
+      </c>
+      <c r="I417" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="J417" t="s">
+        <v>85</v>
+      </c>
+      <c r="K417" s="7">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>326</v>
+      </c>
+      <c r="B418" s="4">
+        <v>45925</v>
+      </c>
+      <c r="C418">
+        <v>6012</v>
+      </c>
+      <c r="D418" t="s">
+        <v>338</v>
+      </c>
+      <c r="E418" t="s">
+        <v>323</v>
+      </c>
+      <c r="F418" t="s">
+        <v>324</v>
+      </c>
+      <c r="G418" t="s">
+        <v>82</v>
+      </c>
+      <c r="H418" t="s">
+        <v>565</v>
+      </c>
+      <c r="I418" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="J418" t="s">
+        <v>85</v>
+      </c>
+      <c r="K418" s="7">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>326</v>
+      </c>
+      <c r="B419" s="4">
+        <v>45925</v>
+      </c>
+      <c r="C419">
+        <v>6012</v>
+      </c>
+      <c r="D419" t="s">
+        <v>338</v>
+      </c>
+      <c r="E419" t="s">
+        <v>323</v>
+      </c>
+      <c r="F419" t="s">
+        <v>324</v>
+      </c>
+      <c r="G419" t="s">
+        <v>82</v>
+      </c>
+      <c r="H419" t="s">
+        <v>577</v>
+      </c>
+      <c r="I419" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="J419" t="s">
+        <v>85</v>
+      </c>
+      <c r="K419" s="7">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>326</v>
+      </c>
+      <c r="B420" s="4">
+        <v>45926</v>
+      </c>
+      <c r="C420">
+        <v>6006</v>
+      </c>
+      <c r="D420" t="s">
+        <v>376</v>
+      </c>
+      <c r="E420" t="s">
+        <v>323</v>
+      </c>
+      <c r="F420" t="s">
+        <v>324</v>
+      </c>
+      <c r="G420" t="s">
+        <v>82</v>
+      </c>
+      <c r="H420" t="s">
+        <v>112</v>
+      </c>
+      <c r="I420" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="J420" t="s">
+        <v>85</v>
+      </c>
+      <c r="K420" s="7">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>326</v>
+      </c>
+      <c r="B421" s="4">
+        <v>45928</v>
+      </c>
+      <c r="C421">
+        <v>6006</v>
+      </c>
+      <c r="D421" t="s">
+        <v>376</v>
+      </c>
+      <c r="E421" t="s">
+        <v>323</v>
+      </c>
+      <c r="F421" t="s">
+        <v>324</v>
+      </c>
+      <c r="G421" t="s">
+        <v>82</v>
+      </c>
+      <c r="H421" t="s">
+        <v>589</v>
+      </c>
+      <c r="I421" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="J421" t="s">
+        <v>85</v>
+      </c>
+      <c r="K421" s="7">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>326</v>
+      </c>
+      <c r="B422" s="4">
+        <v>45928</v>
+      </c>
+      <c r="C422">
+        <v>6022</v>
+      </c>
+      <c r="D422" t="s">
+        <v>541</v>
+      </c>
+      <c r="E422" t="s">
+        <v>323</v>
+      </c>
+      <c r="F422" t="s">
+        <v>324</v>
+      </c>
+      <c r="G422" t="s">
+        <v>82</v>
+      </c>
+      <c r="H422" t="s">
+        <v>527</v>
+      </c>
+      <c r="I422" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="J422" t="s">
+        <v>85</v>
+      </c>
+      <c r="K422" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>326</v>
+      </c>
+      <c r="B423" s="4">
+        <v>45928</v>
+      </c>
+      <c r="C423">
+        <v>6015</v>
+      </c>
+      <c r="D423" t="s">
+        <v>432</v>
+      </c>
+      <c r="E423" t="s">
+        <v>323</v>
+      </c>
+      <c r="F423" t="s">
+        <v>324</v>
+      </c>
+      <c r="G423" t="s">
+        <v>82</v>
+      </c>
+      <c r="H423" t="s">
+        <v>572</v>
+      </c>
+      <c r="I423" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="J423" t="s">
+        <v>85</v>
+      </c>
+      <c r="K423" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>326</v>
+      </c>
+      <c r="B424" s="4">
+        <v>45928</v>
+      </c>
+      <c r="C424">
+        <v>6007</v>
+      </c>
+      <c r="D424" t="s">
+        <v>386</v>
+      </c>
+      <c r="E424" t="s">
+        <v>323</v>
+      </c>
+      <c r="F424" t="s">
+        <v>324</v>
+      </c>
+      <c r="G424" t="s">
+        <v>82</v>
+      </c>
+      <c r="H424" t="s">
+        <v>593</v>
+      </c>
+      <c r="I424" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="J424" t="s">
+        <v>85</v>
+      </c>
+      <c r="K424" s="7">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>326</v>
+      </c>
+      <c r="B425" s="4">
+        <v>45928</v>
+      </c>
+      <c r="C425">
+        <v>6012</v>
+      </c>
+      <c r="D425" t="s">
+        <v>338</v>
+      </c>
+      <c r="E425" t="s">
+        <v>323</v>
+      </c>
+      <c r="F425" t="s">
+        <v>324</v>
+      </c>
+      <c r="G425" t="s">
+        <v>82</v>
+      </c>
+      <c r="H425" t="s">
+        <v>569</v>
+      </c>
+      <c r="I425" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="J425" t="s">
+        <v>85</v>
+      </c>
+      <c r="K425" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>326</v>
+      </c>
+      <c r="B426" s="4">
+        <v>45928</v>
+      </c>
+      <c r="C426">
+        <v>6025</v>
+      </c>
+      <c r="D426" t="s">
+        <v>546</v>
+      </c>
+      <c r="E426" t="s">
+        <v>323</v>
+      </c>
+      <c r="F426" t="s">
+        <v>324</v>
+      </c>
+      <c r="G426" t="s">
+        <v>82</v>
+      </c>
+      <c r="H426" t="s">
+        <v>557</v>
+      </c>
+      <c r="I426" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="J426" t="s">
+        <v>85</v>
+      </c>
+      <c r="K426" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>326</v>
+      </c>
+      <c r="B427" s="4">
+        <v>45930</v>
+      </c>
+      <c r="C427">
+        <v>5032</v>
+      </c>
+      <c r="D427" t="s">
+        <v>596</v>
+      </c>
+      <c r="E427" t="s">
+        <v>80</v>
+      </c>
+      <c r="F427" t="s">
+        <v>88</v>
+      </c>
+      <c r="G427" t="s">
+        <v>82</v>
+      </c>
+      <c r="H427" t="s">
+        <v>112</v>
+      </c>
+      <c r="I427" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="J427" t="s">
+        <v>85</v>
+      </c>
+      <c r="K427" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>326</v>
+      </c>
+      <c r="B428" s="4">
+        <v>45930</v>
+      </c>
+      <c r="C428">
+        <v>5032</v>
+      </c>
+      <c r="D428" t="s">
+        <v>596</v>
+      </c>
+      <c r="E428" t="s">
+        <v>80</v>
+      </c>
+      <c r="F428" t="s">
+        <v>81</v>
+      </c>
+      <c r="G428" t="s">
+        <v>82</v>
+      </c>
+      <c r="H428" t="s">
+        <v>482</v>
+      </c>
+      <c r="I428" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="J428" t="s">
+        <v>85</v>
+      </c>
+      <c r="K428" s="7">
+        <v>1874419.8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>326</v>
+      </c>
+      <c r="B429" s="4">
+        <v>45930</v>
+      </c>
+      <c r="C429">
+        <v>5032</v>
+      </c>
+      <c r="D429" t="s">
+        <v>596</v>
+      </c>
+      <c r="E429" t="s">
+        <v>80</v>
+      </c>
+      <c r="F429" t="s">
+        <v>81</v>
+      </c>
+      <c r="G429" t="s">
+        <v>82</v>
+      </c>
+      <c r="H429" t="s">
+        <v>123</v>
+      </c>
+      <c r="I429" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="J429" t="s">
+        <v>85</v>
+      </c>
+      <c r="K429" s="7">
+        <v>1520000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>326</v>
+      </c>
+      <c r="B430" s="4">
+        <v>45930</v>
+      </c>
+      <c r="C430">
+        <v>5032</v>
+      </c>
+      <c r="D430" t="s">
+        <v>596</v>
+      </c>
+      <c r="E430" t="s">
+        <v>80</v>
+      </c>
+      <c r="F430" t="s">
+        <v>81</v>
+      </c>
+      <c r="G430" t="s">
+        <v>82</v>
+      </c>
+      <c r="H430" t="s">
+        <v>169</v>
+      </c>
+      <c r="I430" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="J430" t="s">
+        <v>85</v>
+      </c>
+      <c r="K430" s="7">
+        <v>1196244</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>326</v>
+      </c>
+      <c r="B431" s="4">
+        <v>45930</v>
+      </c>
+      <c r="C431">
+        <v>5032</v>
+      </c>
+      <c r="D431" t="s">
+        <v>596</v>
+      </c>
+      <c r="E431" t="s">
+        <v>80</v>
+      </c>
+      <c r="F431" t="s">
+        <v>81</v>
+      </c>
+      <c r="G431" t="s">
+        <v>82</v>
+      </c>
+      <c r="H431" t="s">
+        <v>123</v>
+      </c>
+      <c r="I431" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="J431" t="s">
+        <v>85</v>
+      </c>
+      <c r="K431" s="7">
+        <v>258000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>326</v>
+      </c>
+      <c r="B432" s="4">
+        <v>45930</v>
+      </c>
+      <c r="C432">
+        <v>6002</v>
+      </c>
+      <c r="D432" t="s">
+        <v>328</v>
+      </c>
+      <c r="E432" t="s">
+        <v>323</v>
+      </c>
+      <c r="F432" t="s">
+        <v>324</v>
+      </c>
+      <c r="G432" t="s">
+        <v>82</v>
+      </c>
+      <c r="H432" t="s">
+        <v>169</v>
+      </c>
+      <c r="I432" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="J432" t="s">
+        <v>85</v>
+      </c>
+      <c r="K432" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>326</v>
+      </c>
+      <c r="B433" s="4">
+        <v>45930</v>
+      </c>
+      <c r="C433">
+        <v>6002</v>
+      </c>
+      <c r="D433" t="s">
+        <v>328</v>
+      </c>
+      <c r="E433" t="s">
+        <v>323</v>
+      </c>
+      <c r="F433" t="s">
+        <v>324</v>
+      </c>
+      <c r="G433" t="s">
+        <v>82</v>
+      </c>
+      <c r="H433" t="s">
+        <v>327</v>
+      </c>
+      <c r="I433" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="J433" t="s">
+        <v>85</v>
+      </c>
+      <c r="K433" s="7">
+        <v>7556.66</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>326</v>
+      </c>
+      <c r="B434" s="4">
+        <v>45930</v>
+      </c>
+      <c r="C434">
+        <v>6002</v>
+      </c>
+      <c r="D434" t="s">
+        <v>328</v>
+      </c>
+      <c r="E434" t="s">
+        <v>323</v>
+      </c>
+      <c r="F434" t="s">
+        <v>324</v>
+      </c>
+      <c r="G434" t="s">
+        <v>82</v>
+      </c>
+      <c r="H434" t="s">
+        <v>327</v>
+      </c>
+      <c r="I434" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="J434" t="s">
+        <v>85</v>
+      </c>
+      <c r="K434" s="7">
+        <v>566.75</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>326</v>
+      </c>
+      <c r="B435" s="4">
+        <v>45930</v>
+      </c>
+      <c r="C435">
+        <v>6009</v>
+      </c>
+      <c r="D435" t="s">
+        <v>331</v>
+      </c>
+      <c r="E435" t="s">
+        <v>323</v>
+      </c>
+      <c r="F435" t="s">
+        <v>324</v>
+      </c>
+      <c r="G435" t="s">
+        <v>82</v>
+      </c>
+      <c r="H435" t="s">
+        <v>598</v>
+      </c>
+      <c r="I435" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="J435" t="s">
+        <v>85</v>
+      </c>
+      <c r="K435" s="7">
+        <v>71355</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>326</v>
+      </c>
+      <c r="B436" s="4">
+        <v>45931</v>
+      </c>
+      <c r="C436">
+        <v>6023</v>
+      </c>
+      <c r="D436" t="s">
+        <v>542</v>
+      </c>
+      <c r="E436" t="s">
+        <v>323</v>
+      </c>
+      <c r="F436" t="s">
+        <v>324</v>
+      </c>
+      <c r="G436" t="s">
+        <v>82</v>
+      </c>
+      <c r="H436" t="s">
+        <v>553</v>
+      </c>
+      <c r="I436" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="J436" t="s">
+        <v>85</v>
+      </c>
+      <c r="K436" s="7">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>326</v>
+      </c>
+      <c r="B437" s="4">
+        <v>45944</v>
+      </c>
+      <c r="C437">
+        <v>5030</v>
+      </c>
+      <c r="D437" t="s">
+        <v>601</v>
+      </c>
+      <c r="E437" t="s">
+        <v>80</v>
+      </c>
+      <c r="F437" t="s">
+        <v>81</v>
+      </c>
+      <c r="G437" t="s">
+        <v>82</v>
+      </c>
+      <c r="H437" t="s">
+        <v>112</v>
+      </c>
+      <c r="I437" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="J437" t="s">
+        <v>85</v>
+      </c>
+      <c r="K437" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>326</v>
+      </c>
+      <c r="B438" s="4">
+        <v>45946</v>
+      </c>
+      <c r="C438">
+        <v>5030</v>
+      </c>
+      <c r="D438" t="s">
+        <v>601</v>
+      </c>
+      <c r="E438" t="s">
+        <v>80</v>
+      </c>
+      <c r="F438" t="s">
+        <v>81</v>
+      </c>
+      <c r="G438" t="s">
+        <v>82</v>
+      </c>
+      <c r="H438" t="s">
+        <v>123</v>
+      </c>
+      <c r="I438" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="J438" t="s">
+        <v>85</v>
+      </c>
+      <c r="K438" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>326</v>
+      </c>
+      <c r="B439" s="4">
+        <v>45946</v>
+      </c>
+      <c r="C439">
+        <v>5030</v>
+      </c>
+      <c r="D439" t="s">
+        <v>601</v>
+      </c>
+      <c r="E439" t="s">
+        <v>80</v>
+      </c>
+      <c r="F439" t="s">
+        <v>81</v>
+      </c>
+      <c r="G439" t="s">
+        <v>82</v>
+      </c>
+      <c r="H439" t="s">
+        <v>123</v>
+      </c>
+      <c r="I439" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="J439" t="s">
+        <v>85</v>
+      </c>
+      <c r="K439" s="7">
+        <v>1011000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>326</v>
+      </c>
+      <c r="B440" s="4">
+        <v>45954</v>
+      </c>
+      <c r="C440">
+        <v>6012</v>
+      </c>
+      <c r="D440" t="s">
+        <v>338</v>
+      </c>
+      <c r="E440" t="s">
+        <v>323</v>
+      </c>
+      <c r="F440" t="s">
+        <v>324</v>
+      </c>
+      <c r="G440" t="s">
+        <v>82</v>
+      </c>
+      <c r="H440" t="s">
+        <v>565</v>
+      </c>
+      <c r="I440" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="J440" t="s">
+        <v>85</v>
+      </c>
+      <c r="K440" s="7">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>326</v>
+      </c>
+      <c r="B441" s="4">
+        <v>45955</v>
+      </c>
+      <c r="C441">
+        <v>6012</v>
+      </c>
+      <c r="D441" t="s">
+        <v>338</v>
+      </c>
+      <c r="E441" t="s">
+        <v>323</v>
+      </c>
+      <c r="F441" t="s">
+        <v>324</v>
+      </c>
+      <c r="G441" t="s">
+        <v>82</v>
+      </c>
+      <c r="H441" t="s">
+        <v>577</v>
+      </c>
+      <c r="I441" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="J441" t="s">
+        <v>85</v>
+      </c>
+      <c r="K441" s="7">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>326</v>
+      </c>
+      <c r="B442" s="4">
+        <v>45955</v>
+      </c>
+      <c r="C442">
+        <v>6012</v>
+      </c>
+      <c r="D442" t="s">
+        <v>338</v>
+      </c>
+      <c r="E442" t="s">
+        <v>323</v>
+      </c>
+      <c r="F442" t="s">
+        <v>324</v>
+      </c>
+      <c r="G442" t="s">
+        <v>82</v>
+      </c>
+      <c r="H442" t="s">
+        <v>557</v>
+      </c>
+      <c r="I442" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="J442" t="s">
+        <v>85</v>
+      </c>
+      <c r="K442" s="7">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>326</v>
+      </c>
+      <c r="B443" s="4">
+        <v>45955</v>
+      </c>
+      <c r="C443">
+        <v>6012</v>
+      </c>
+      <c r="D443" t="s">
+        <v>338</v>
+      </c>
+      <c r="E443" t="s">
+        <v>323</v>
+      </c>
+      <c r="F443" t="s">
+        <v>324</v>
+      </c>
+      <c r="G443" t="s">
+        <v>82</v>
+      </c>
+      <c r="H443" t="s">
+        <v>578</v>
+      </c>
+      <c r="I443" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="J443" t="s">
+        <v>85</v>
+      </c>
+      <c r="K443" s="7">
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>326</v>
+      </c>
+      <c r="B444" s="4">
+        <v>45955</v>
+      </c>
+      <c r="C444">
+        <v>6012</v>
+      </c>
+      <c r="D444" t="s">
+        <v>338</v>
+      </c>
+      <c r="E444" t="s">
+        <v>323</v>
+      </c>
+      <c r="F444" t="s">
+        <v>324</v>
+      </c>
+      <c r="G444" t="s">
+        <v>82</v>
+      </c>
+      <c r="H444" t="s">
+        <v>112</v>
+      </c>
+      <c r="I444" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="J444" t="s">
+        <v>85</v>
+      </c>
+      <c r="K444" s="7">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>326</v>
+      </c>
+      <c r="B445" s="4">
+        <v>45955</v>
+      </c>
+      <c r="C445">
+        <v>6012</v>
+      </c>
+      <c r="D445" t="s">
+        <v>338</v>
+      </c>
+      <c r="E445" t="s">
+        <v>323</v>
+      </c>
+      <c r="F445" t="s">
+        <v>324</v>
+      </c>
+      <c r="G445" t="s">
+        <v>82</v>
+      </c>
+      <c r="H445" t="s">
+        <v>571</v>
+      </c>
+      <c r="I445" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="J445" t="s">
+        <v>85</v>
+      </c>
+      <c r="K445" s="7">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>326</v>
+      </c>
+      <c r="B446" s="4">
+        <v>45955</v>
+      </c>
+      <c r="C446">
+        <v>6012</v>
+      </c>
+      <c r="D446" t="s">
+        <v>338</v>
+      </c>
+      <c r="E446" t="s">
+        <v>323</v>
+      </c>
+      <c r="F446" t="s">
+        <v>324</v>
+      </c>
+      <c r="G446" t="s">
+        <v>82</v>
+      </c>
+      <c r="H446" t="s">
+        <v>569</v>
+      </c>
+      <c r="I446" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="J446" t="s">
+        <v>85</v>
+      </c>
+      <c r="K446" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>326</v>
+      </c>
+      <c r="B447" s="4">
+        <v>45955</v>
+      </c>
+      <c r="C447">
+        <v>6015</v>
+      </c>
+      <c r="D447" t="s">
+        <v>432</v>
+      </c>
+      <c r="E447" t="s">
+        <v>323</v>
+      </c>
+      <c r="F447" t="s">
+        <v>324</v>
+      </c>
+      <c r="G447" t="s">
+        <v>82</v>
+      </c>
+      <c r="H447" t="s">
+        <v>572</v>
+      </c>
+      <c r="I447" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="J447" t="s">
+        <v>85</v>
+      </c>
+      <c r="K447" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>326</v>
+      </c>
+      <c r="B448" s="4">
+        <v>45955</v>
+      </c>
+      <c r="C448">
+        <v>5031</v>
+      </c>
+      <c r="D448" t="s">
+        <v>607</v>
+      </c>
+      <c r="E448" t="s">
+        <v>80</v>
+      </c>
+      <c r="F448" t="s">
+        <v>81</v>
+      </c>
+      <c r="G448" t="s">
+        <v>82</v>
+      </c>
+      <c r="H448" t="s">
+        <v>565</v>
+      </c>
+      <c r="I448" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="J448" t="s">
+        <v>85</v>
+      </c>
+      <c r="K448" s="7">
+        <v>522500</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>326</v>
+      </c>
+      <c r="B449" s="4">
+        <v>45955</v>
+      </c>
+      <c r="C449">
+        <v>5031</v>
+      </c>
+      <c r="D449" t="s">
+        <v>607</v>
+      </c>
+      <c r="E449" t="s">
+        <v>80</v>
+      </c>
+      <c r="F449" t="s">
+        <v>88</v>
+      </c>
+      <c r="G449" t="s">
+        <v>82</v>
+      </c>
+      <c r="H449" t="s">
+        <v>609</v>
+      </c>
+      <c r="I449" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="J449" t="s">
+        <v>85</v>
+      </c>
+      <c r="K449" s="7">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>326</v>
+      </c>
+      <c r="B450" s="4">
+        <v>45957</v>
+      </c>
+      <c r="C450">
+        <v>6002</v>
+      </c>
+      <c r="D450" t="s">
+        <v>328</v>
+      </c>
+      <c r="E450" t="s">
+        <v>323</v>
+      </c>
+      <c r="F450" t="s">
+        <v>324</v>
+      </c>
+      <c r="G450" t="s">
+        <v>82</v>
+      </c>
+      <c r="H450" t="s">
+        <v>327</v>
+      </c>
+      <c r="I450" s="13" t="str">
+        <f>PROPER(I448)</f>
+        <v>Payment For Cctv Camera Cat6 Cable 4Port Poe Switch 13 Ah Sucker And Plug Imou Wireless Camera Pipping Materials And Lab Naf Valley Project</v>
+      </c>
+      <c r="J450" t="s">
+        <v>85</v>
+      </c>
+      <c r="K450" s="7">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>326</v>
+      </c>
+      <c r="B451" s="4">
+        <v>45960</v>
+      </c>
+      <c r="C451">
+        <v>6002</v>
+      </c>
+      <c r="D451" t="s">
+        <v>328</v>
+      </c>
+      <c r="E451" t="s">
+        <v>323</v>
+      </c>
+      <c r="F451" t="s">
+        <v>324</v>
+      </c>
+      <c r="G451" t="s">
+        <v>82</v>
+      </c>
+      <c r="H451" t="s">
+        <v>327</v>
+      </c>
+      <c r="I451" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="J451" t="s">
+        <v>85</v>
+      </c>
+      <c r="K451" s="7">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>326</v>
+      </c>
+      <c r="B452" s="4">
+        <v>45960</v>
+      </c>
+      <c r="C452">
+        <v>6002</v>
+      </c>
+      <c r="D452" t="s">
+        <v>328</v>
+      </c>
+      <c r="E452" t="s">
+        <v>323</v>
+      </c>
+      <c r="F452" t="s">
+        <v>324</v>
+      </c>
+      <c r="G452" t="s">
+        <v>82</v>
+      </c>
+      <c r="H452" t="s">
+        <v>327</v>
+      </c>
+      <c r="I452" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="J452" t="s">
+        <v>85</v>
+      </c>
+      <c r="K452" s="7">
+        <v>4719.8599999999997</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>326</v>
+      </c>
+      <c r="B453" s="4">
+        <v>45961</v>
+      </c>
+      <c r="C453">
+        <v>6002</v>
+      </c>
+      <c r="D453" t="s">
+        <v>328</v>
+      </c>
+      <c r="E453" t="s">
+        <v>323</v>
+      </c>
+      <c r="F453" t="s">
+        <v>324</v>
+      </c>
+      <c r="G453" t="s">
+        <v>82</v>
+      </c>
+      <c r="H453" t="s">
+        <v>327</v>
+      </c>
+      <c r="I453" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="J453" t="s">
+        <v>85</v>
+      </c>
+      <c r="K453" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>326</v>
+      </c>
+      <c r="B454" s="4">
+        <v>45961</v>
+      </c>
+      <c r="C454">
+        <v>6007</v>
+      </c>
+      <c r="D454" t="s">
+        <v>386</v>
+      </c>
+      <c r="E454" t="s">
+        <v>323</v>
+      </c>
+      <c r="F454" t="s">
+        <v>324</v>
+      </c>
+      <c r="G454" t="s">
+        <v>82</v>
+      </c>
+      <c r="H454" t="s">
+        <v>593</v>
+      </c>
+      <c r="I454" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="J454" t="s">
+        <v>85</v>
+      </c>
+      <c r="K454" s="7">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>326</v>
+      </c>
+      <c r="B455" s="4">
+        <v>45962</v>
+      </c>
+      <c r="C455">
+        <v>6011</v>
+      </c>
+      <c r="D455" t="s">
+        <v>374</v>
+      </c>
+      <c r="E455" t="s">
+        <v>323</v>
+      </c>
+      <c r="F455" t="s">
+        <v>324</v>
+      </c>
+      <c r="G455" t="s">
+        <v>82</v>
+      </c>
+      <c r="H455" t="s">
+        <v>612</v>
+      </c>
+      <c r="I455" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="J455" t="s">
+        <v>85</v>
+      </c>
+      <c r="K455" s="7">
+        <v>246500</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>326</v>
+      </c>
+      <c r="B456" s="4">
+        <v>45964</v>
+      </c>
+      <c r="C456">
+        <v>6015</v>
+      </c>
+      <c r="D456" t="s">
+        <v>432</v>
+      </c>
+      <c r="E456" t="s">
+        <v>323</v>
+      </c>
+      <c r="F456" t="s">
+        <v>324</v>
+      </c>
+      <c r="G456" t="s">
+        <v>82</v>
+      </c>
+      <c r="H456" t="s">
+        <v>557</v>
+      </c>
+      <c r="I456" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="J456" t="s">
+        <v>85</v>
+      </c>
+      <c r="K456" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>326</v>
+      </c>
+      <c r="B457" s="4">
+        <v>45964</v>
+      </c>
+      <c r="C457">
+        <v>6015</v>
+      </c>
+      <c r="D457" t="s">
+        <v>432</v>
+      </c>
+      <c r="E457" t="s">
+        <v>323</v>
+      </c>
+      <c r="F457" t="s">
+        <v>324</v>
+      </c>
+      <c r="G457" t="s">
+        <v>82</v>
+      </c>
+      <c r="H457" t="s">
+        <v>572</v>
+      </c>
+      <c r="I457" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="J457" t="s">
+        <v>85</v>
+      </c>
+      <c r="K457" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>326</v>
+      </c>
+      <c r="B458" s="4">
+        <v>45964</v>
+      </c>
+      <c r="C458">
+        <v>6025</v>
+      </c>
+      <c r="D458" t="s">
+        <v>546</v>
+      </c>
+      <c r="E458" t="s">
+        <v>323</v>
+      </c>
+      <c r="F458" t="s">
+        <v>324</v>
+      </c>
+      <c r="G458" t="s">
+        <v>82</v>
+      </c>
+      <c r="H458" t="s">
+        <v>112</v>
+      </c>
+      <c r="I458" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="J458" t="s">
+        <v>85</v>
+      </c>
+      <c r="K458" s="7">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>326</v>
+      </c>
+      <c r="B459" s="4">
+        <v>45964</v>
+      </c>
+      <c r="C459">
+        <v>6022</v>
+      </c>
+      <c r="D459" t="s">
+        <v>541</v>
+      </c>
+      <c r="E459" t="s">
+        <v>323</v>
+      </c>
+      <c r="F459" t="s">
+        <v>324</v>
+      </c>
+      <c r="G459" t="s">
+        <v>82</v>
+      </c>
+      <c r="H459" t="s">
+        <v>527</v>
+      </c>
+      <c r="I459" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="J459" t="s">
+        <v>85</v>
+      </c>
+      <c r="K459" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>326</v>
+      </c>
+      <c r="B460" s="4">
+        <v>45965</v>
+      </c>
+      <c r="C460">
+        <v>6002</v>
+      </c>
+      <c r="D460" t="s">
+        <v>328</v>
+      </c>
+      <c r="E460" t="s">
+        <v>323</v>
+      </c>
+      <c r="F460" t="s">
+        <v>324</v>
+      </c>
+      <c r="G460" t="s">
+        <v>82</v>
+      </c>
+      <c r="H460" t="s">
+        <v>112</v>
+      </c>
+      <c r="I460" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="J460" t="s">
+        <v>85</v>
+      </c>
+      <c r="K460" s="7">
+        <v>19887</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>326</v>
+      </c>
+      <c r="B461" s="4">
+        <v>45966</v>
+      </c>
+      <c r="C461">
+        <v>6009</v>
+      </c>
+      <c r="D461" t="s">
+        <v>331</v>
+      </c>
+      <c r="E461" t="s">
+        <v>323</v>
+      </c>
+      <c r="F461" t="s">
+        <v>324</v>
+      </c>
+      <c r="G461" t="s">
+        <v>82</v>
+      </c>
+      <c r="H461" t="s">
+        <v>565</v>
+      </c>
+      <c r="I461" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="J461" t="s">
+        <v>85</v>
+      </c>
+      <c r="K461" s="7">
+        <v>129200</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>326</v>
+      </c>
+      <c r="B462" s="4">
+        <v>45966</v>
+      </c>
+      <c r="C462">
+        <v>6006</v>
+      </c>
+      <c r="D462" t="s">
+        <v>376</v>
+      </c>
+      <c r="E462" t="s">
+        <v>323</v>
+      </c>
+      <c r="F462" t="s">
+        <v>324</v>
+      </c>
+      <c r="G462" t="s">
+        <v>82</v>
+      </c>
+      <c r="H462" t="s">
+        <v>619</v>
+      </c>
+      <c r="I462" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="J462" t="s">
+        <v>85</v>
+      </c>
+      <c r="K462" s="7">
+        <v>148363.49</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>326</v>
+      </c>
+      <c r="B463" s="4">
+        <v>45974</v>
+      </c>
+      <c r="C463">
+        <v>5027</v>
+      </c>
+      <c r="D463" t="s">
+        <v>484</v>
+      </c>
+      <c r="E463" t="s">
+        <v>80</v>
+      </c>
+      <c r="F463" t="s">
+        <v>81</v>
+      </c>
+      <c r="G463" t="s">
+        <v>82</v>
+      </c>
+      <c r="H463" t="s">
+        <v>565</v>
+      </c>
+      <c r="I463" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="J463" t="s">
+        <v>85</v>
+      </c>
+      <c r="K463" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>326</v>
+      </c>
+      <c r="B464" s="4">
+        <v>45979</v>
+      </c>
+      <c r="C464">
+        <v>5027</v>
+      </c>
+      <c r="D464" t="s">
+        <v>484</v>
+      </c>
+      <c r="E464" t="s">
+        <v>80</v>
+      </c>
+      <c r="F464" t="s">
+        <v>81</v>
+      </c>
+      <c r="G464" t="s">
+        <v>82</v>
+      </c>
+      <c r="H464" t="s">
+        <v>571</v>
+      </c>
+      <c r="I464" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="J464" t="s">
+        <v>85</v>
+      </c>
+      <c r="K464" s="7">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>326</v>
+      </c>
+      <c r="B465" s="4">
+        <v>45986</v>
+      </c>
+      <c r="C465">
+        <v>6012</v>
+      </c>
+      <c r="D465" t="s">
+        <v>338</v>
+      </c>
+      <c r="E465" t="s">
+        <v>323</v>
+      </c>
+      <c r="F465" t="s">
+        <v>324</v>
+      </c>
+      <c r="G465" t="s">
+        <v>82</v>
+      </c>
+      <c r="H465" t="s">
+        <v>557</v>
+      </c>
+      <c r="I465" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="J465" t="s">
+        <v>85</v>
+      </c>
+      <c r="K465" s="7">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>326</v>
+      </c>
+      <c r="B466" s="4">
+        <v>45986</v>
+      </c>
+      <c r="C466">
+        <v>6012</v>
+      </c>
+      <c r="D466" t="s">
+        <v>338</v>
+      </c>
+      <c r="E466" t="s">
+        <v>323</v>
+      </c>
+      <c r="F466" t="s">
+        <v>324</v>
+      </c>
+      <c r="G466" t="s">
+        <v>82</v>
+      </c>
+      <c r="H466" t="s">
+        <v>578</v>
+      </c>
+      <c r="I466" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="J466" t="s">
+        <v>85</v>
+      </c>
+      <c r="K466" s="7">
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>326</v>
+      </c>
+      <c r="B467" s="4">
+        <v>45986</v>
+      </c>
+      <c r="C467">
+        <v>6012</v>
+      </c>
+      <c r="D467" t="s">
+        <v>338</v>
+      </c>
+      <c r="E467" t="s">
+        <v>323</v>
+      </c>
+      <c r="F467" t="s">
+        <v>324</v>
+      </c>
+      <c r="G467" t="s">
+        <v>82</v>
+      </c>
+      <c r="H467" t="s">
+        <v>565</v>
+      </c>
+      <c r="I467" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="J467" t="s">
+        <v>85</v>
+      </c>
+      <c r="K467" s="7">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>326</v>
+      </c>
+      <c r="B468" s="4">
+        <v>45986</v>
+      </c>
+      <c r="C468">
+        <v>6012</v>
+      </c>
+      <c r="D468" t="s">
+        <v>338</v>
+      </c>
+      <c r="E468" t="s">
+        <v>323</v>
+      </c>
+      <c r="F468" t="s">
+        <v>324</v>
+      </c>
+      <c r="G468" t="s">
+        <v>82</v>
+      </c>
+      <c r="H468" t="s">
+        <v>577</v>
+      </c>
+      <c r="I468" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="J468" t="s">
+        <v>85</v>
+      </c>
+      <c r="K468" s="7">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>326</v>
+      </c>
+      <c r="B469" s="4">
+        <v>45986</v>
+      </c>
+      <c r="C469">
+        <v>6012</v>
+      </c>
+      <c r="D469" t="s">
+        <v>338</v>
+      </c>
+      <c r="E469" t="s">
+        <v>323</v>
+      </c>
+      <c r="F469" t="s">
+        <v>324</v>
+      </c>
+      <c r="G469" t="s">
+        <v>82</v>
+      </c>
+      <c r="H469" t="s">
+        <v>112</v>
+      </c>
+      <c r="I469" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="J469" t="s">
+        <v>85</v>
+      </c>
+      <c r="K469" s="7">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>326</v>
+      </c>
+      <c r="B470" s="4">
+        <v>45986</v>
+      </c>
+      <c r="C470">
+        <v>6012</v>
+      </c>
+      <c r="D470" t="s">
+        <v>338</v>
+      </c>
+      <c r="E470" t="s">
+        <v>323</v>
+      </c>
+      <c r="F470" t="s">
+        <v>324</v>
+      </c>
+      <c r="G470" t="s">
+        <v>82</v>
+      </c>
+      <c r="H470" t="s">
+        <v>569</v>
+      </c>
+      <c r="I470" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="J470" t="s">
+        <v>85</v>
+      </c>
+      <c r="K470" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>326</v>
+      </c>
+      <c r="B471" s="4">
+        <v>45986</v>
+      </c>
+      <c r="C471">
+        <v>6012</v>
+      </c>
+      <c r="D471" t="s">
+        <v>338</v>
+      </c>
+      <c r="E471" t="s">
+        <v>323</v>
+      </c>
+      <c r="F471" t="s">
+        <v>324</v>
+      </c>
+      <c r="G471" t="s">
+        <v>82</v>
+      </c>
+      <c r="H471" t="s">
+        <v>571</v>
+      </c>
+      <c r="I471" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="J471" t="s">
+        <v>85</v>
+      </c>
+      <c r="K471" s="7">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>326</v>
+      </c>
+      <c r="B472" s="4">
+        <v>45986</v>
+      </c>
+      <c r="C472">
+        <v>6006</v>
+      </c>
+      <c r="D472" t="s">
+        <v>376</v>
+      </c>
+      <c r="E472" t="s">
+        <v>323</v>
+      </c>
+      <c r="F472" t="s">
+        <v>324</v>
+      </c>
+      <c r="G472" t="s">
+        <v>82</v>
+      </c>
+      <c r="H472" t="s">
+        <v>112</v>
+      </c>
+      <c r="I472" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="J472" t="s">
+        <v>85</v>
+      </c>
+      <c r="K472" s="7">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>326</v>
+      </c>
+      <c r="B473" s="4">
+        <v>45989</v>
+      </c>
+      <c r="C473">
+        <v>6025</v>
+      </c>
+      <c r="D473" t="s">
+        <v>546</v>
+      </c>
+      <c r="E473" t="s">
+        <v>323</v>
+      </c>
+      <c r="F473" t="s">
+        <v>324</v>
+      </c>
+      <c r="G473" t="s">
+        <v>82</v>
+      </c>
+      <c r="H473" t="s">
+        <v>557</v>
+      </c>
+      <c r="I473" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="J473" t="s">
+        <v>85</v>
+      </c>
+      <c r="K473" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>326</v>
+      </c>
+      <c r="B474" s="4">
+        <v>45989</v>
+      </c>
+      <c r="C474">
+        <v>6022</v>
+      </c>
+      <c r="D474" t="s">
+        <v>541</v>
+      </c>
+      <c r="E474" t="s">
+        <v>323</v>
+      </c>
+      <c r="F474" t="s">
+        <v>324</v>
+      </c>
+      <c r="G474" t="s">
+        <v>82</v>
+      </c>
+      <c r="H474" t="s">
+        <v>527</v>
+      </c>
+      <c r="I474" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="J474" t="s">
+        <v>85</v>
+      </c>
+      <c r="K474" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>326</v>
+      </c>
+      <c r="B475" s="4">
+        <v>45989</v>
+      </c>
+      <c r="C475">
+        <v>6015</v>
+      </c>
+      <c r="D475" t="s">
+        <v>432</v>
+      </c>
+      <c r="E475" t="s">
+        <v>323</v>
+      </c>
+      <c r="F475" t="s">
+        <v>324</v>
+      </c>
+      <c r="G475" t="s">
+        <v>82</v>
+      </c>
+      <c r="H475" t="s">
+        <v>572</v>
+      </c>
+      <c r="I475" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="J475" t="s">
+        <v>85</v>
+      </c>
+      <c r="K475" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>326</v>
+      </c>
+      <c r="B476" s="4">
+        <v>45989</v>
+      </c>
+      <c r="C476">
+        <v>6006</v>
+      </c>
+      <c r="D476" t="s">
+        <v>376</v>
+      </c>
+      <c r="E476" t="s">
+        <v>323</v>
+      </c>
+      <c r="F476" t="s">
+        <v>324</v>
+      </c>
+      <c r="G476" t="s">
+        <v>82</v>
+      </c>
+      <c r="H476" t="s">
+        <v>112</v>
+      </c>
+      <c r="I476" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="J476" t="s">
+        <v>85</v>
+      </c>
+      <c r="K476" s="7">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>326</v>
+      </c>
+      <c r="B477" s="4">
+        <v>45989</v>
+      </c>
+      <c r="C477">
+        <v>6022</v>
+      </c>
+      <c r="D477" t="s">
+        <v>541</v>
+      </c>
+      <c r="E477" t="s">
+        <v>323</v>
+      </c>
+      <c r="F477" t="s">
+        <v>324</v>
+      </c>
+      <c r="G477" t="s">
+        <v>82</v>
+      </c>
+      <c r="H477" t="s">
+        <v>527</v>
+      </c>
+      <c r="I477" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="J477" t="s">
+        <v>85</v>
+      </c>
+      <c r="K477" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>326</v>
+      </c>
+      <c r="B478" s="4">
+        <v>45989</v>
+      </c>
+      <c r="C478">
+        <v>6015</v>
+      </c>
+      <c r="D478" t="s">
+        <v>432</v>
+      </c>
+      <c r="E478" t="s">
+        <v>323</v>
+      </c>
+      <c r="F478" t="s">
+        <v>324</v>
+      </c>
+      <c r="G478" t="s">
+        <v>82</v>
+      </c>
+      <c r="H478" t="s">
+        <v>572</v>
+      </c>
+      <c r="I478" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="J478" t="s">
+        <v>85</v>
+      </c>
+      <c r="K478" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>326</v>
+      </c>
+      <c r="B479" s="4">
+        <v>45989</v>
+      </c>
+      <c r="C479">
+        <v>6025</v>
+      </c>
+      <c r="D479" t="s">
+        <v>546</v>
+      </c>
+      <c r="E479" t="s">
+        <v>323</v>
+      </c>
+      <c r="F479" t="s">
+        <v>324</v>
+      </c>
+      <c r="G479" t="s">
+        <v>82</v>
+      </c>
+      <c r="H479" t="s">
+        <v>557</v>
+      </c>
+      <c r="I479" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="J479" t="s">
+        <v>85</v>
+      </c>
+      <c r="K479" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>326</v>
+      </c>
+      <c r="B480" s="4">
+        <v>45989</v>
+      </c>
+      <c r="C480">
+        <v>6002</v>
+      </c>
+      <c r="D480" t="s">
+        <v>328</v>
+      </c>
+      <c r="E480" t="s">
+        <v>323</v>
+      </c>
+      <c r="F480" t="s">
+        <v>324</v>
+      </c>
+      <c r="G480" t="s">
+        <v>82</v>
+      </c>
+      <c r="H480" t="s">
+        <v>327</v>
+      </c>
+      <c r="I480" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="J480" t="s">
+        <v>85</v>
+      </c>
+      <c r="K480" s="7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>326</v>
+      </c>
+      <c r="B481" s="4">
+        <v>45990</v>
+      </c>
+      <c r="C481">
+        <v>6002</v>
+      </c>
+      <c r="D481" t="s">
+        <v>328</v>
+      </c>
+      <c r="E481" t="s">
+        <v>323</v>
+      </c>
+      <c r="F481" t="s">
+        <v>324</v>
+      </c>
+      <c r="G481" t="s">
+        <v>82</v>
+      </c>
+      <c r="H481" t="s">
+        <v>327</v>
+      </c>
+      <c r="I481" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="J481" t="s">
+        <v>85</v>
+      </c>
+      <c r="K481" s="7">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>326</v>
+      </c>
+      <c r="B482" s="4">
+        <v>45990</v>
+      </c>
+      <c r="C482">
+        <v>6002</v>
+      </c>
+      <c r="D482" t="s">
+        <v>328</v>
+      </c>
+      <c r="E482" t="s">
+        <v>323</v>
+      </c>
+      <c r="F482" t="s">
+        <v>324</v>
+      </c>
+      <c r="G482" t="s">
+        <v>82</v>
+      </c>
+      <c r="H482" t="s">
+        <v>327</v>
+      </c>
+      <c r="I482" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="J482" t="s">
+        <v>85</v>
+      </c>
+      <c r="K482" s="7">
+        <v>3427.95</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>326</v>
+      </c>
+      <c r="B483" s="4">
+        <v>45991</v>
+      </c>
+      <c r="C483">
+        <v>6003</v>
+      </c>
+      <c r="D483" t="s">
+        <v>358</v>
+      </c>
+      <c r="E483" t="s">
+        <v>323</v>
+      </c>
+      <c r="F483" t="s">
+        <v>324</v>
+      </c>
+      <c r="G483" t="s">
+        <v>82</v>
+      </c>
+      <c r="H483" t="s">
+        <v>627</v>
+      </c>
+      <c r="I483" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="J483" t="s">
+        <v>85</v>
+      </c>
+      <c r="K483" s="7">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>326</v>
+      </c>
+      <c r="B484" s="4">
+        <v>45992</v>
+      </c>
+      <c r="C484">
+        <v>6007</v>
+      </c>
+      <c r="D484" t="s">
+        <v>386</v>
+      </c>
+      <c r="E484" t="s">
+        <v>323</v>
+      </c>
+      <c r="F484" t="s">
+        <v>324</v>
+      </c>
+      <c r="G484" t="s">
+        <v>82</v>
+      </c>
+      <c r="H484" t="s">
+        <v>593</v>
+      </c>
+      <c r="I484" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="J484" t="s">
+        <v>85</v>
+      </c>
+      <c r="K484" s="7">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>326</v>
+      </c>
+      <c r="B485" s="4">
+        <v>45994</v>
+      </c>
+      <c r="C485">
+        <v>6003</v>
+      </c>
+      <c r="D485" t="s">
+        <v>358</v>
+      </c>
+      <c r="E485" t="s">
+        <v>323</v>
+      </c>
+      <c r="F485" t="s">
+        <v>324</v>
+      </c>
+      <c r="G485" t="s">
+        <v>82</v>
+      </c>
+      <c r="H485" t="s">
+        <v>630</v>
+      </c>
+      <c r="I485" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="J485" t="s">
+        <v>85</v>
+      </c>
+      <c r="K485" s="7">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>326</v>
+      </c>
+      <c r="B486" s="4">
+        <v>45994</v>
+      </c>
+      <c r="C486">
+        <v>6001</v>
+      </c>
+      <c r="D486" t="s">
+        <v>388</v>
+      </c>
+      <c r="E486" t="s">
+        <v>323</v>
+      </c>
+      <c r="F486" t="s">
+        <v>324</v>
+      </c>
+      <c r="G486" t="s">
+        <v>82</v>
+      </c>
+      <c r="H486" t="s">
+        <v>553</v>
+      </c>
+      <c r="I486" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="J486" t="s">
+        <v>85</v>
+      </c>
+      <c r="K486" s="7">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>326</v>
+      </c>
+      <c r="B487" s="14">
+        <v>45665</v>
+      </c>
+      <c r="C487" s="9">
+        <v>4130</v>
+      </c>
+      <c r="D487" t="s">
+        <v>492</v>
+      </c>
+      <c r="E487" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F487" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G487" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H487" t="s">
+        <v>21</v>
+      </c>
+      <c r="I487" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="J487" t="s">
+        <v>17</v>
+      </c>
+      <c r="K487" s="7">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>326</v>
+      </c>
+      <c r="B488" s="14">
+        <v>45785</v>
+      </c>
+      <c r="C488" s="9">
+        <v>4130</v>
+      </c>
+      <c r="D488" t="s">
+        <v>492</v>
+      </c>
+      <c r="E488" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G488" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H488" t="s">
+        <v>21</v>
+      </c>
+      <c r="I488" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="J488" t="s">
+        <v>17</v>
+      </c>
+      <c r="K488" s="7">
+        <v>1459880</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>326</v>
+      </c>
+      <c r="B489" s="14">
+        <v>45971</v>
+      </c>
+      <c r="C489">
+        <v>4131</v>
+      </c>
+      <c r="D489" t="s">
+        <v>633</v>
+      </c>
+      <c r="E489" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F489" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G489" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H489" t="s">
+        <v>21</v>
+      </c>
+      <c r="I489" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="J489" t="s">
+        <v>17</v>
+      </c>
+      <c r="K489" s="7">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>326</v>
+      </c>
+      <c r="B490" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="C490">
+        <v>4130</v>
+      </c>
+      <c r="D490" t="s">
+        <v>636</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G490" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H490" t="s">
+        <v>21</v>
+      </c>
+      <c r="I490" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="J490" t="s">
+        <v>17</v>
+      </c>
+      <c r="K490" s="7">
+        <v>2148020</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>326</v>
+      </c>
+      <c r="B491" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="C491">
+        <v>4132</v>
+      </c>
+      <c r="D491" t="s">
+        <v>639</v>
+      </c>
+      <c r="E491" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F491" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G491" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H491" t="s">
+        <v>640</v>
+      </c>
+      <c r="I491" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="J491" t="s">
+        <v>17</v>
+      </c>
+      <c r="K491" s="7">
+        <v>781200</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>326</v>
+      </c>
+      <c r="B492" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="C492">
+        <v>4133</v>
+      </c>
+      <c r="D492" t="s">
+        <v>643</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G492" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H492" t="s">
+        <v>21</v>
+      </c>
+      <c r="I492" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="J492" t="s">
+        <v>17</v>
+      </c>
+      <c r="K492" s="7">
+        <v>8580170.2100000009</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>326</v>
+      </c>
+      <c r="B493" s="4">
+        <v>46009</v>
+      </c>
+      <c r="C493">
+        <v>6012</v>
+      </c>
+      <c r="D493" t="s">
+        <v>338</v>
+      </c>
+      <c r="E493" t="s">
+        <v>323</v>
+      </c>
+      <c r="F493" t="s">
+        <v>324</v>
+      </c>
+      <c r="G493" t="s">
+        <v>82</v>
+      </c>
+      <c r="H493" t="s">
+        <v>557</v>
+      </c>
+      <c r="I493" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="J493" t="s">
+        <v>85</v>
+      </c>
+      <c r="K493" s="7">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>326</v>
+      </c>
+      <c r="B494" s="4">
+        <v>46009</v>
+      </c>
+      <c r="C494">
+        <v>6012</v>
+      </c>
+      <c r="D494" t="s">
+        <v>338</v>
+      </c>
+      <c r="E494" t="s">
+        <v>323</v>
+      </c>
+      <c r="F494" t="s">
+        <v>324</v>
+      </c>
+      <c r="G494" t="s">
+        <v>82</v>
+      </c>
+      <c r="H494" t="s">
+        <v>578</v>
+      </c>
+      <c r="I494" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="J494" t="s">
+        <v>85</v>
+      </c>
+      <c r="K494" s="7">
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>326</v>
+      </c>
+      <c r="B495" s="4">
+        <v>46009</v>
+      </c>
+      <c r="C495">
+        <v>6012</v>
+      </c>
+      <c r="D495" t="s">
+        <v>338</v>
+      </c>
+      <c r="E495" t="s">
+        <v>323</v>
+      </c>
+      <c r="F495" t="s">
+        <v>324</v>
+      </c>
+      <c r="G495" t="s">
+        <v>82</v>
+      </c>
+      <c r="H495" t="s">
+        <v>565</v>
+      </c>
+      <c r="I495" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="J495" t="s">
+        <v>85</v>
+      </c>
+      <c r="K495" s="7">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>326</v>
+      </c>
+      <c r="B496" s="4">
+        <v>46009</v>
+      </c>
+      <c r="C496">
+        <v>6012</v>
+      </c>
+      <c r="D496" t="s">
+        <v>338</v>
+      </c>
+      <c r="E496" t="s">
+        <v>323</v>
+      </c>
+      <c r="F496" t="s">
+        <v>324</v>
+      </c>
+      <c r="G496" t="s">
+        <v>82</v>
+      </c>
+      <c r="H496" t="s">
+        <v>577</v>
+      </c>
+      <c r="I496" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="J496" t="s">
+        <v>85</v>
+      </c>
+      <c r="K496" s="7">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>326</v>
+      </c>
+      <c r="B497" s="4">
+        <v>46009</v>
+      </c>
+      <c r="C497">
+        <v>6012</v>
+      </c>
+      <c r="D497" t="s">
+        <v>338</v>
+      </c>
+      <c r="E497" t="s">
+        <v>323</v>
+      </c>
+      <c r="F497" t="s">
+        <v>324</v>
+      </c>
+      <c r="G497" t="s">
+        <v>82</v>
+      </c>
+      <c r="H497" t="s">
+        <v>112</v>
+      </c>
+      <c r="I497" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="J497" t="s">
+        <v>85</v>
+      </c>
+      <c r="K497" s="7">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>326</v>
+      </c>
+      <c r="B498" s="4">
+        <v>46009</v>
+      </c>
+      <c r="C498">
+        <v>6012</v>
+      </c>
+      <c r="D498" t="s">
+        <v>338</v>
+      </c>
+      <c r="E498" t="s">
+        <v>323</v>
+      </c>
+      <c r="F498" t="s">
+        <v>324</v>
+      </c>
+      <c r="G498" t="s">
+        <v>82</v>
+      </c>
+      <c r="H498" t="s">
+        <v>569</v>
+      </c>
+      <c r="I498" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="J498" t="s">
+        <v>85</v>
+      </c>
+      <c r="K498" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>326</v>
+      </c>
+      <c r="B499" s="4">
+        <v>46009</v>
+      </c>
+      <c r="C499">
+        <v>6012</v>
+      </c>
+      <c r="D499" t="s">
+        <v>338</v>
+      </c>
+      <c r="E499" t="s">
+        <v>323</v>
+      </c>
+      <c r="F499" t="s">
+        <v>324</v>
+      </c>
+      <c r="G499" t="s">
+        <v>82</v>
+      </c>
+      <c r="H499" t="s">
+        <v>571</v>
+      </c>
+      <c r="I499" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="J499" t="s">
+        <v>85</v>
+      </c>
+      <c r="K499" s="7">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>326</v>
+      </c>
+      <c r="B500" s="4">
+        <v>46295</v>
+      </c>
+      <c r="C500" s="9">
+        <v>4100</v>
+      </c>
+      <c r="D500" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="E500" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G500" t="s">
+        <v>14</v>
+      </c>
+      <c r="H500" t="s">
+        <v>169</v>
+      </c>
+      <c r="I500" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="J500" t="s">
+        <v>17</v>
+      </c>
+      <c r="K500" s="7">
+        <v>3124608</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K378" xr:uid="{567B0B89-13D6-844C-A15B-AD52EC1F3EDB}"/>
+  <autoFilter ref="A1:K500" xr:uid="{567B0B89-13D6-844C-A15B-AD52EC1F3EDB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15106,7 +19815,6 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/01.xlsx
+++ b/01.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzooco/Library/Mobile Documents/com~apple~CloudDocs/Documents/SUBSIDIARIES/1.NEW/CIMPLIFY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A042DA91-54DA-EB44-BC4E-C9B828366705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7625EEED-FA38-6C47-887A-95F229030150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{FD1C1A06-9E6A-244C-BCF7-4BE313F4B495}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$500</definedName>
@@ -2438,10 +2437,10 @@
   <dimension ref="A1:K500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E485" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
+      <selection pane="bottomRight" activeCell="D509" sqref="D509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19808,16 +19807,4 @@
   <autoFilter ref="A1:K500" xr:uid="{567B0B89-13D6-844C-A15B-AD52EC1F3EDB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3D5B35-F8DE-C848-9048-541A89D6617B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/01.xlsx
+++ b/01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzooco/Library/Mobile Documents/com~apple~CloudDocs/Documents/SUBSIDIARIES/1.NEW/CIMPLIFY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7625EEED-FA38-6C47-887A-95F229030150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0199ECDF-90AC-1742-82BF-4F40F94F9252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{FD1C1A06-9E6A-244C-BCF7-4BE313F4B495}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="15380" xr2:uid="{FD1C1A06-9E6A-244C-BCF7-4BE313F4B495}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2437,10 +2437,10 @@
   <dimension ref="A1:K500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E485" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D509" sqref="D509"/>
+      <selection pane="bottomRight" activeCell="H225" sqref="H225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19804,7 +19804,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K500" xr:uid="{567B0B89-13D6-844C-A15B-AD52EC1F3EDB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>